--- a/UCUA/src/vUtilyty/ExportExcel.xlsx
+++ b/UCUA/src/vUtilyty/ExportExcel.xlsx
@@ -14,18 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Name</t>
+    <t>admin</t>
   </si>
   <si>
-    <t>Address</t>
+    <t>sUserName</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
+    <t>sPassword</t>
   </si>
 </sst>
 </file>
@@ -370,25 +367,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>

--- a/UCUA/src/vUtilyty/ExportExcel.xlsx
+++ b/UCUA/src/vUtilyty/ExportExcel.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>sUserName</t>
-  </si>
-  <si>
-    <t>sPassword</t>
+    <t>123456</t>
   </si>
 </sst>
 </file>
@@ -58,8 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,21 +374,15 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
